--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/D/20/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/D/20/seed4/result_data_KNN.xlsx
@@ -590,7 +590,7 @@
         <v>-11.36</v>
       </c>
       <c r="D9" t="n">
-        <v>-6.488</v>
+        <v>-7.561</v>
       </c>
       <c r="E9" t="n">
         <v>17.64</v>
@@ -658,7 +658,7 @@
         <v>-15.83</v>
       </c>
       <c r="D13" t="n">
-        <v>-8.268000000000001</v>
+        <v>-8.220000000000001</v>
       </c>
       <c r="E13" t="n">
         <v>16.47</v>
@@ -709,7 +709,7 @@
         <v>-13.59</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.794</v>
+        <v>-8.747</v>
       </c>
       <c r="E16" t="n">
         <v>14.68</v>
@@ -743,7 +743,7 @@
         <v>-15.14</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.07</v>
+        <v>-8.548000000000002</v>
       </c>
       <c r="E18" t="n">
         <v>17.03</v>
@@ -777,7 +777,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.286</v>
+        <v>-7.43</v>
       </c>
       <c r="E20" t="n">
         <v>16.97</v>
@@ -879,7 +879,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.967999999999999</v>
+        <v>-8.122999999999999</v>
       </c>
       <c r="E26" t="n">
         <v>13.83</v>
@@ -896,7 +896,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.596</v>
+        <v>-8.815999999999999</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -930,7 +930,7 @@
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.818000000000001</v>
+        <v>-7.369999999999999</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -1032,7 +1032,7 @@
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-7.664</v>
+        <v>-7.873</v>
       </c>
       <c r="E35" t="n">
         <v>15.78</v>
@@ -1049,7 +1049,7 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-7.758000000000001</v>
+        <v>-7.784000000000001</v>
       </c>
       <c r="E36" t="n">
         <v>15.99</v>
@@ -1202,7 +1202,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.76</v>
+        <v>-7.558000000000002</v>
       </c>
       <c r="E45" t="n">
         <v>16.85</v>
@@ -1372,7 +1372,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.209999999999999</v>
+        <v>-8.456999999999999</v>
       </c>
       <c r="E55" t="n">
         <v>16.57</v>
@@ -1406,7 +1406,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.610000000000001</v>
+        <v>-8.315000000000001</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1610,7 +1610,7 @@
         <v>-10.8</v>
       </c>
       <c r="D69" t="n">
-        <v>-6.914</v>
+        <v>-7.160999999999999</v>
       </c>
       <c r="E69" t="n">
         <v>17.51</v>
@@ -1729,7 +1729,7 @@
         <v>-15.06</v>
       </c>
       <c r="D76" t="n">
-        <v>-7.508</v>
+        <v>-7.806999999999999</v>
       </c>
       <c r="E76" t="n">
         <v>16.38</v>
@@ -1763,7 +1763,7 @@
         <v>-13.33</v>
       </c>
       <c r="D78" t="n">
-        <v>-8.032</v>
+        <v>-7.878</v>
       </c>
       <c r="E78" t="n">
         <v>17.28</v>
@@ -1831,7 +1831,7 @@
         <v>-14.08</v>
       </c>
       <c r="D82" t="n">
-        <v>-8.548</v>
+        <v>-8.418000000000001</v>
       </c>
       <c r="E82" t="n">
         <v>16.71</v>
@@ -1848,7 +1848,7 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.483999999999998</v>
+        <v>-8.354000000000001</v>
       </c>
       <c r="E83" t="n">
         <v>16.38</v>
@@ -2018,7 +2018,7 @@
         <v>-11.3</v>
       </c>
       <c r="D93" t="n">
-        <v>-7.692</v>
+        <v>-7.452</v>
       </c>
       <c r="E93" t="n">
         <v>18.32</v>
@@ -2086,7 +2086,7 @@
         <v>-13.93</v>
       </c>
       <c r="D97" t="n">
-        <v>-8.690000000000001</v>
+        <v>-8.273</v>
       </c>
       <c r="E97" t="n">
         <v>15.78</v>
